--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/94.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/94.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3817515424053515</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.316918620572813</v>
+        <v>-1.317309913461177</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1683469690419399</v>
+        <v>-0.1689266081340307</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1297973192976775</v>
+        <v>-0.1304645612752228</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.4141293867973284</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.386849083934976</v>
+        <v>-1.387862357310067</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2361778832493762</v>
+        <v>-0.2368684859963761</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1333627567356766</v>
+        <v>-0.1340898606849491</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.4536640227810338</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.490814728344312</v>
+        <v>-1.491979846720857</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2825183496067274</v>
+        <v>-0.2828410202348183</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1380349106265844</v>
+        <v>-0.1389518208276751</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4800789981032484</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.644048235533271</v>
+        <v>-1.645606106846271</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2924422964806339</v>
+        <v>-0.2924773376348157</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1481180027423999</v>
+        <v>-0.1490378330396724</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4838153195962783</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.7388929595187</v>
+        <v>-1.739987995586882</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2917327131084522</v>
+        <v>-0.2918246961381795</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.165051640500759</v>
+        <v>-0.1659057686339406</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4634666309313307</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.579033754093198</v>
+        <v>-1.580333196894106</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2247953483326521</v>
+        <v>-0.2247062853991066</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1714276705137573</v>
+        <v>-0.171832103834939</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4280485869269364</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.419710386317058</v>
+        <v>-1.420379088342695</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1486158791413998</v>
+        <v>-0.1489692107793997</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.151730161719308</v>
+        <v>-0.1522937402823988</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3851644567557281</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.15037385493904</v>
+        <v>-1.150512559507676</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.007932945341892091</v>
+        <v>-0.007937325486164817</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1285416779394961</v>
+        <v>-0.1287898861149505</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3377954972358963</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7787843155623214</v>
+        <v>-0.7785959693585942</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07785072019135759</v>
+        <v>0.07804782668363028</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1160714071950449</v>
+        <v>-0.115718075557045</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2832273005065165</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4023386562352407</v>
+        <v>-0.4020057652705136</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1198285628530736</v>
+        <v>0.1193701077525283</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07219258191896574</v>
+        <v>-0.07231376591051117</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2176648054883276</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06809029870363295</v>
+        <v>0.06801291615481479</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1329660755750701</v>
+        <v>0.1328098504293428</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02820032481191639</v>
+        <v>0.02824266620655274</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1370304489907689</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6093315860515786</v>
+        <v>0.608892111576215</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05193194648154638</v>
+        <v>0.05220789557072812</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1800365659778756</v>
+        <v>0.1805607232425119</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.04207810132562208</v>
       </c>
       <c r="E14" t="n">
-        <v>1.173748216746518</v>
+        <v>1.173610972225972</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0948437680013233</v>
+        <v>-0.09401592073377807</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3090055339440228</v>
+        <v>0.3095647323628408</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.06667110171549379</v>
       </c>
       <c r="E15" t="n">
-        <v>1.822002268869526</v>
+        <v>1.820943734003617</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2626660757146419</v>
+        <v>-0.2611417855077332</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4909596471292467</v>
+        <v>0.4908238626567922</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.188009921259918</v>
       </c>
       <c r="E16" t="n">
-        <v>2.450577792823266</v>
+        <v>2.449698843872539</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4991748858166693</v>
+        <v>-0.4979834865744878</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6089928548944877</v>
+        <v>0.6089738742693059</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3192128597898933</v>
       </c>
       <c r="E17" t="n">
-        <v>3.06222405916292</v>
+        <v>3.061283788192374</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6340760291761786</v>
+        <v>-0.633236501523906</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7956804439904376</v>
+        <v>0.7952424295631649</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.461100422890364</v>
       </c>
       <c r="E18" t="n">
-        <v>3.663318557949577</v>
+        <v>3.663365279488486</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7571887442496908</v>
+        <v>-0.756771170495691</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9372613073658541</v>
+        <v>0.9365123026952179</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6133453642084284</v>
       </c>
       <c r="E19" t="n">
-        <v>4.197122360322433</v>
+        <v>4.197221643592616</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9151498871570122</v>
+        <v>-0.9146680712870122</v>
       </c>
       <c r="G19" t="n">
-        <v>1.08986261373145</v>
+        <v>1.089134049734086</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7684504670474751</v>
       </c>
       <c r="E20" t="n">
-        <v>4.740396034612924</v>
+        <v>4.740623802115105</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.130650065278954</v>
+        <v>-1.130252932198227</v>
       </c>
       <c r="G20" t="n">
-        <v>1.248774247945952</v>
+        <v>1.248217969623316</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9122725021630401</v>
       </c>
       <c r="E21" t="n">
-        <v>5.200184159065254</v>
+        <v>5.201214953017437</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.287584794378367</v>
+        <v>-1.287194961538094</v>
       </c>
       <c r="G21" t="n">
-        <v>1.424904229296541</v>
+        <v>1.424489575638723</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.032120811057062</v>
       </c>
       <c r="E22" t="n">
-        <v>5.603104870424783</v>
+        <v>5.604440814427964</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.494212260251857</v>
+        <v>-1.494150938232038</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539998360254783</v>
+        <v>1.539595386981692</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.121075599118388</v>
       </c>
       <c r="E23" t="n">
-        <v>5.875406759475437</v>
+        <v>5.876837606604528</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.674390954958536</v>
+        <v>-1.674734066259899</v>
       </c>
       <c r="G23" t="n">
-        <v>1.701323453963558</v>
+        <v>1.701084006076649</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.178251846787348</v>
       </c>
       <c r="E24" t="n">
-        <v>6.179257367674446</v>
+        <v>6.180940803123264</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.84648901350608</v>
+        <v>-1.846675169637671</v>
       </c>
       <c r="G24" t="n">
-        <v>1.814459660431891</v>
+        <v>1.813761757444437</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.205505525539363</v>
       </c>
       <c r="E25" t="n">
-        <v>6.389628396853026</v>
+        <v>6.391859350335935</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.981249262224817</v>
+        <v>-1.981887303240544</v>
       </c>
       <c r="G25" t="n">
-        <v>1.916473220543682</v>
+        <v>1.915674574237955</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.207665909575516</v>
       </c>
       <c r="E26" t="n">
-        <v>6.489335080981181</v>
+        <v>6.490844770707181</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.087056027276788</v>
+        <v>-2.087812332187879</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98003349408521</v>
+        <v>1.979770685428847</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.189028404166366</v>
       </c>
       <c r="E27" t="n">
-        <v>6.542639976732167</v>
+        <v>6.544120465496349</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.175488950070992</v>
+        <v>-2.175521801153038</v>
       </c>
       <c r="G27" t="n">
-        <v>2.06175238573337</v>
+        <v>2.061555279241098</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.153960977245224</v>
       </c>
       <c r="E28" t="n">
-        <v>6.652423912783774</v>
+        <v>6.65384745967241</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.234572716165794</v>
+        <v>-2.234282896619749</v>
       </c>
       <c r="G28" t="n">
-        <v>2.091779734770999</v>
+        <v>2.091817696021362</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.104794542779064</v>
       </c>
       <c r="E29" t="n">
-        <v>6.588689893519428</v>
+        <v>6.590526634017791</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.294287953059915</v>
+        <v>-2.294453668518233</v>
       </c>
       <c r="G29" t="n">
-        <v>2.136955082751805</v>
+        <v>2.137051445925805</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.04458445169278</v>
       </c>
       <c r="E30" t="n">
-        <v>6.555882612916709</v>
+        <v>6.558221609958345</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.328950954786178</v>
+        <v>-2.32921887361086</v>
       </c>
       <c r="G30" t="n">
-        <v>2.121272706207354</v>
+        <v>2.121363229188991</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9768897763317815</v>
       </c>
       <c r="E31" t="n">
-        <v>6.466551030522552</v>
+        <v>6.46875132299555</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.310513467494183</v>
+        <v>-2.310478426340001</v>
       </c>
       <c r="G31" t="n">
-        <v>2.103303894352541</v>
+        <v>2.103176870168632</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9058440018371481</v>
       </c>
       <c r="E32" t="n">
-        <v>6.290767080569507</v>
+        <v>6.292688503857144</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.316362420146363</v>
+        <v>-2.316383590843681</v>
       </c>
       <c r="G32" t="n">
-        <v>2.041180308132467</v>
+        <v>2.040930639908921</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8349568597678203</v>
       </c>
       <c r="E33" t="n">
-        <v>6.107806994249647</v>
+        <v>6.11025257480192</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.338453677785857</v>
+        <v>-2.337872578645676</v>
       </c>
       <c r="G33" t="n">
-        <v>1.975627068946848</v>
+        <v>1.975865056785666</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.765770766164211</v>
       </c>
       <c r="E34" t="n">
-        <v>5.867691865363076</v>
+        <v>5.870406094764075</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.382733286262891</v>
+        <v>-2.3825230393378</v>
       </c>
       <c r="G34" t="n">
-        <v>1.89190353126987</v>
+        <v>1.891937112375961</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7003182621330732</v>
       </c>
       <c r="E35" t="n">
-        <v>5.642794817728045</v>
+        <v>5.645476926071044</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.370143291574985</v>
+        <v>-2.369978306140712</v>
       </c>
       <c r="G35" t="n">
-        <v>1.822884137916434</v>
+        <v>1.823330912632253</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6376744922423437</v>
       </c>
       <c r="E36" t="n">
-        <v>5.452297963162914</v>
+        <v>5.455136296651641</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.330664321220859</v>
+        <v>-2.331353463919768</v>
       </c>
       <c r="G36" t="n">
-        <v>1.735079765825367</v>
+        <v>1.73514838808564</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5787057538976063</v>
       </c>
       <c r="E37" t="n">
-        <v>5.089324167570648</v>
+        <v>5.092461810918011</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.26985842840283</v>
+        <v>-2.27062130353033</v>
       </c>
       <c r="G37" t="n">
-        <v>1.648586516919936</v>
+        <v>1.648640538699299</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5227058017166004</v>
       </c>
       <c r="E38" t="n">
-        <v>4.815188458117813</v>
+        <v>4.818829818056539</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.165361326488404</v>
+        <v>-2.166394310512722</v>
       </c>
       <c r="G38" t="n">
-        <v>1.549979249004235</v>
+        <v>1.550087292562962</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4695508691976523</v>
       </c>
       <c r="E39" t="n">
-        <v>4.52204876271371</v>
+        <v>4.525298829764073</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.147883090792136</v>
+        <v>-2.148745979213863</v>
       </c>
       <c r="G39" t="n">
-        <v>1.437768713025538</v>
+        <v>1.438396533704629</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4183873964457192</v>
       </c>
       <c r="E40" t="n">
-        <v>4.252814434702055</v>
+        <v>4.256299569495054</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.118758781498734</v>
+        <v>-2.119626050064734</v>
       </c>
       <c r="G40" t="n">
-        <v>1.381467798592008</v>
+        <v>1.381353914840917</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3681865286212948</v>
       </c>
       <c r="E41" t="n">
-        <v>3.957636512163043</v>
+        <v>3.960682172480678</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.029043206456667</v>
+        <v>-2.029935295840213</v>
       </c>
       <c r="G41" t="n">
-        <v>1.261443085230767</v>
+        <v>1.261245978738494</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3188424999813568</v>
       </c>
       <c r="E42" t="n">
-        <v>3.701980631396839</v>
+        <v>3.705245298928111</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.933988965570193</v>
+        <v>-1.934907335819375</v>
       </c>
       <c r="G42" t="n">
-        <v>1.156636453121068</v>
+        <v>1.156448106917341</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2691137176336272</v>
       </c>
       <c r="E43" t="n">
-        <v>3.431404519189639</v>
+        <v>3.435015218118456</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.866826023364347</v>
+        <v>-1.867724682964302</v>
       </c>
       <c r="G43" t="n">
-        <v>1.063862077328547</v>
+        <v>1.063794915116365</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2192034859594327</v>
       </c>
       <c r="E44" t="n">
-        <v>3.162936716425711</v>
+        <v>3.167059892234437</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.826303848649268</v>
+        <v>-1.827171117215267</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9300369894120378</v>
+        <v>0.9304063815790378</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.168776504998338</v>
       </c>
       <c r="E45" t="n">
-        <v>2.905070322849871</v>
+        <v>2.909148237167779</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.742849689845062</v>
+        <v>-1.743297924608971</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8091099663306158</v>
+        <v>0.8093114529671612</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1189454841009883</v>
       </c>
       <c r="E46" t="n">
-        <v>2.655841573779847</v>
+        <v>2.65962163828721</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.694107444378167</v>
+        <v>-1.694503117410803</v>
       </c>
       <c r="G46" t="n">
-        <v>0.768136636755445</v>
+        <v>0.768742556713172</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.06993235269265391</v>
       </c>
       <c r="E47" t="n">
-        <v>2.355759349703473</v>
+        <v>2.359878145367927</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.647117256620361</v>
+        <v>-1.647650174173543</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6612946976070191</v>
+        <v>0.6616670098702009</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.02203008651727034</v>
       </c>
       <c r="E48" t="n">
-        <v>2.164056495415252</v>
+        <v>2.167998625260705</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.613407666297461</v>
+        <v>-1.613547830914188</v>
       </c>
       <c r="G48" t="n">
-        <v>0.599057227635854</v>
+        <v>0.5994602009089448</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.02467772447569975</v>
       </c>
       <c r="E49" t="n">
-        <v>1.966931022517396</v>
+        <v>1.970754888467486</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.564430353087929</v>
+        <v>-1.564475614578747</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5381425612350522</v>
+        <v>0.5383528081601431</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.07005000699016685</v>
       </c>
       <c r="E50" t="n">
-        <v>1.85403134383979</v>
+        <v>1.857776367192971</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.491268803300585</v>
+        <v>-1.491315524839494</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4768190813687959</v>
+        <v>0.4770935704098868</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.113668756393542</v>
       </c>
       <c r="E51" t="n">
-        <v>1.678091168741019</v>
+        <v>1.681304734589109</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.433668446066146</v>
+        <v>-1.433211451013691</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4186420051384479</v>
+        <v>0.419312167212175</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.155770058176712</v>
       </c>
       <c r="E52" t="n">
-        <v>1.559573225009596</v>
+        <v>1.562740069318777</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.393559464960793</v>
+        <v>-1.393074728994611</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3379860285004695</v>
+        <v>0.338346660378924</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1955359844040276</v>
       </c>
       <c r="E53" t="n">
-        <v>1.382721979902098</v>
+        <v>1.385014255404825</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.356148652727439</v>
+        <v>-1.355807001474167</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2713231527657602</v>
+        <v>0.2718823511845782</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2329673105542973</v>
       </c>
       <c r="E54" t="n">
-        <v>1.331246524409021</v>
+        <v>1.333689184865111</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.337255630431081</v>
+        <v>-1.336849737061808</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2186008162030471</v>
+        <v>0.2190534311112288</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2681465363329613</v>
       </c>
       <c r="E55" t="n">
-        <v>1.208422898857509</v>
+        <v>1.21046550613669</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.301161781575727</v>
+        <v>-1.30100701647809</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1636110249551528</v>
+        <v>0.1644826736654252</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3019888598641677</v>
       </c>
       <c r="E56" t="n">
-        <v>1.178721140544153</v>
+        <v>1.180540360465425</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.248388343329832</v>
+        <v>-1.24785542577665</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1034760242348962</v>
+        <v>0.1047287454968958</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3344830313150868</v>
       </c>
       <c r="E57" t="n">
-        <v>1.088358764197814</v>
+        <v>1.090134182676358</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.24003102805747</v>
+        <v>-1.239958025652925</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06044256680345318</v>
+        <v>0.0616033050357256</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.365999653537064</v>
       </c>
       <c r="E58" t="n">
-        <v>1.034583732961555</v>
+        <v>1.036651161058282</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.202665477314935</v>
+        <v>-1.202372007648662</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01702758490016238</v>
+        <v>-0.01542299204825372</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.39621843085241</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9255181405706754</v>
+        <v>0.9277344935726748</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.118442603190867</v>
+        <v>-1.118222135929139</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09356038572941455</v>
+        <v>-0.09181270816459684</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4251632007513589</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9018186399590454</v>
+        <v>0.9046920146019538</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.099908752724872</v>
+        <v>-1.099534980413599</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1202486047831347</v>
+        <v>-0.1184162444290442</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4526841948162974</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7690447866679901</v>
+        <v>0.7717677763575349</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.069858042917789</v>
+        <v>-1.069468210077516</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1485136757750362</v>
+        <v>-0.1468390006147639</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4785805718140286</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7292993575372736</v>
+        <v>0.7319873060726365</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.064366802047881</v>
+        <v>-1.064229557527336</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.224364634145834</v>
+        <v>-0.2226184166291072</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5026012682984056</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6381368748371162</v>
+        <v>0.6411358136158427</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.099749607482962</v>
+        <v>-1.099178728679417</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2394498510211026</v>
+        <v>-0.2373765827320123</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5241656835161301</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5491659243214129</v>
+        <v>0.5528802866646846</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.086013475043694</v>
+        <v>-1.085258630180694</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2897616481857255</v>
+        <v>-0.287339428402908</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5438674929464334</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4651211760644354</v>
+        <v>0.4685727297513436</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.053403300933248</v>
+        <v>-1.052966746554066</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3219965899368077</v>
+        <v>-0.3195261885669902</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5608105593033602</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4161394827106304</v>
+        <v>0.4195472349548113</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.069675536906425</v>
+        <v>-1.068939672668607</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3510719876191636</v>
+        <v>-0.3484132400456189</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5744151310268155</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3888351233625468</v>
+        <v>0.392174253346455</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.088234208189966</v>
+        <v>-1.087277876690421</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3839157694241548</v>
+        <v>-0.3809431115110646</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5831620976605965</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3097559986627499</v>
+        <v>0.3130352666749308</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.103646475837598</v>
+        <v>-1.102938352513507</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3946398226518791</v>
+        <v>-0.3918978523371526</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5856414093285877</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2057757537725051</v>
+        <v>0.2092433679884132</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.145284127294132</v>
+        <v>-1.144672367144041</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4176501805646002</v>
+        <v>-0.4146629221706011</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5810771090711274</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1423191436454312</v>
+        <v>0.1459006416124302</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.193617559295574</v>
+        <v>-1.192734230200574</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4346495204870502</v>
+        <v>-0.4319455114226873</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5689689403621426</v>
       </c>
       <c r="E71" t="n">
-        <v>0.09076776565162686</v>
+        <v>0.0940470336638078</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.280594084119096</v>
+        <v>-1.280110808201005</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4958488962655793</v>
+        <v>-0.4930178630173073</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5502098570081289</v>
       </c>
       <c r="E72" t="n">
-        <v>0.004569446460559097</v>
+        <v>0.008185985581739944</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.316082013016723</v>
+        <v>-1.315790003398541</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4894422052426719</v>
+        <v>-0.4870681670468544</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5259677297871889</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.008879056504800928</v>
+        <v>-0.00542166262552913</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.306626741579998</v>
+        <v>-1.306111344603907</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5393320485090222</v>
+        <v>-0.5370470732467501</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4973570347443674</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02076575993300929</v>
+        <v>0.02422753395655382</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346665640376987</v>
+        <v>-1.346318148931351</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5247928896197533</v>
+        <v>-0.5230510522472992</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4646691938506053</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02673443652864405</v>
+        <v>0.03020789093691585</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.397292807929246</v>
+        <v>-1.397069420571337</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.475192135875403</v>
+        <v>-0.4734765793685853</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4297453255937559</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07786094052799396</v>
+        <v>0.08094018195172041</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.343475435298352</v>
+        <v>-1.343098742890897</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4855730778017638</v>
+        <v>-0.483826860285037</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3932585681194791</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1912555755084181</v>
+        <v>0.1941858920268718</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.341870842446443</v>
+        <v>-1.341514590712261</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4313425115611421</v>
+        <v>-0.4297729598634152</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3562881570931715</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2750185344838501</v>
+        <v>0.2775867590757585</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.308320397365452</v>
+        <v>-1.307701336974907</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.433214293213687</v>
+        <v>-0.4317323444014147</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3185832162778793</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3668789201714618</v>
+        <v>0.369003290143734</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.321469590472176</v>
+        <v>-1.320739566426721</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4011414168006956</v>
+        <v>-0.3999295768852414</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2797411348202387</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4689114609084344</v>
+        <v>0.470565695395434</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.338060116929171</v>
+        <v>-1.337900971687262</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3435921612494383</v>
+        <v>-0.3424182825843478</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2401211437086254</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5671026151182262</v>
+        <v>0.5681772105131351</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286767167447458</v>
+        <v>-1.286330613068276</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2920641440250885</v>
+        <v>-0.2912377568056342</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1996967859870991</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7020314993914627</v>
+        <v>0.7028651868513716</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.220720432007112</v>
+        <v>-1.220132032626476</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2590378562087338</v>
+        <v>-0.2580873649015522</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1589888343769345</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8570623257803301</v>
+        <v>0.8576332045838755</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.165575875661581</v>
+        <v>-1.164994776521399</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2156525271873818</v>
+        <v>-0.2149721447770183</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1178474009987171</v>
       </c>
       <c r="E84" t="n">
-        <v>1.025804463790921</v>
+        <v>1.026235177977739</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.074122843391333</v>
+        <v>-1.073630807184697</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1664343060428495</v>
+        <v>-0.1662094586368496</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.07704298983509705</v>
       </c>
       <c r="E85" t="n">
-        <v>1.119492829688351</v>
+        <v>1.119081096126714</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.002647649148989</v>
+        <v>-1.001895724382171</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.131533316477768</v>
+        <v>-0.1317099822967679</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.03780735142825935</v>
       </c>
       <c r="E86" t="n">
-        <v>1.283599315010307</v>
+        <v>1.283045956783852</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9262447925998273</v>
+        <v>-0.9255454295642821</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04692936980197253</v>
+        <v>-0.04710749566906339</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.001865278285588875</v>
       </c>
       <c r="E87" t="n">
-        <v>1.382053277876462</v>
+        <v>1.381586062487371</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8256708399056725</v>
+        <v>-0.8253102080272181</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01814452168970753</v>
+        <v>-0.0180554587561621</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.02871072568837736</v>
       </c>
       <c r="E88" t="n">
-        <v>1.469038562988529</v>
+        <v>1.468472064329257</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6983473461379794</v>
+        <v>-0.6984889708027976</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03291628014555149</v>
+        <v>0.03293672081882421</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.05282129399931571</v>
       </c>
       <c r="E89" t="n">
-        <v>1.56665007810623</v>
+        <v>1.565963855503503</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5656537954919242</v>
+        <v>-0.5658509019841969</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07842889923535745</v>
+        <v>0.07882165217181189</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.06809806998961175</v>
       </c>
       <c r="E90" t="n">
-        <v>1.626479928775487</v>
+        <v>1.625306050110397</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4378499459023221</v>
+        <v>-0.4382207981174129</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09129776310862672</v>
+        <v>0.0914802691199903</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.07293814984821592</v>
       </c>
       <c r="E91" t="n">
-        <v>1.669659391016021</v>
+        <v>1.668570195140203</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2772621764794561</v>
+        <v>-0.2773643798458197</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1054631496866229</v>
+        <v>0.1055040310331684</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06804874204491645</v>
       </c>
       <c r="E92" t="n">
-        <v>1.699569936206377</v>
+        <v>1.698216471626104</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1186702927968624</v>
+        <v>-0.1192762127545895</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1033723608204417</v>
+        <v>0.1035840677936234</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.05657485941739041</v>
       </c>
       <c r="E93" t="n">
-        <v>1.695195632126014</v>
+        <v>1.694164838173833</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03887327635645898</v>
+        <v>0.03812865183009554</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09894695505689739</v>
+        <v>0.0990827395293519</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04227232388749443</v>
       </c>
       <c r="E94" t="n">
-        <v>1.64353183042921</v>
+        <v>1.642302469936665</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1485812899073386</v>
+        <v>0.147184023884339</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06034912372563503</v>
+        <v>0.06024838040736233</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.02795416336247766</v>
       </c>
       <c r="E95" t="n">
-        <v>1.552757720521234</v>
+        <v>1.551510839451598</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2332713794204977</v>
+        <v>0.2316083846449527</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0111995248413755</v>
+        <v>0.0116024981144663</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.01591399203966925</v>
       </c>
       <c r="E96" t="n">
-        <v>1.429840651891904</v>
+        <v>1.42867845361154</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3124439471981128</v>
+        <v>0.3107605117492951</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02851524327943202</v>
+        <v>-0.02792100370643218</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.008275264157791579</v>
       </c>
       <c r="E97" t="n">
-        <v>1.275826018974309</v>
+        <v>1.274151343814036</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3626331003230993</v>
+        <v>0.3611526115589179</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04887707395524473</v>
+        <v>-0.04839671813333577</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.004529265365932298</v>
       </c>
       <c r="E98" t="n">
-        <v>1.143531061457072</v>
+        <v>1.142495887360617</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3820298392108214</v>
+        <v>0.3807230961694581</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08597835599332568</v>
+        <v>-0.08537973627605311</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.002332330366841671</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9908757333121124</v>
+        <v>0.9898989611392945</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3771153173368227</v>
+        <v>0.3761005839136412</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1263924871496785</v>
+        <v>-0.1258303686346786</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.003614519570870828</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8830249009328687</v>
+        <v>0.8826701092467778</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3465331500246491</v>
+        <v>0.3460016925195583</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1403578471392202</v>
+        <v>-0.1399504937218566</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.01325174375074889</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7435873881549061</v>
+        <v>0.7434808046442698</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3478340528736488</v>
+        <v>0.3477230892187397</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1333291756295857</v>
+        <v>-0.132828379134404</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.0321270267100368</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6299197241814821</v>
+        <v>0.629376586291664</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3054327962655692</v>
+        <v>0.3051612273206602</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1951622122795691</v>
+        <v>-0.1947592390064783</v>
       </c>
     </row>
   </sheetData>
